--- a/Stocks_financials/WMT.xlsx
+++ b/Stocks_financials/WMT.xlsx
@@ -437,13 +437,13 @@
     <t>Free Cash Flow per Share</t>
   </si>
   <si>
-    <t>Diluted Shares Outstanding  (M)</t>
+    <t>Diluted Shares Outstanding  (M) (M)</t>
   </si>
   <si>
-    <t>Basic Shares Outstanding  (M)</t>
+    <t>Basic Shares Outstanding  (M) (M)</t>
   </si>
   <si>
-    <t>Total Shares Outstanding  (M)</t>
+    <t>Total Shares Outstanding  (M) (M)</t>
   </si>
   <si>
     <t xml:space="preserve"> Asset Turnover Analysis</t>
@@ -626,13 +626,13 @@
     <t>Total Debt/Total Capital</t>
   </si>
   <si>
-    <t>All figures in millions of U.S. Dollar except per share items.</t>
+    <t>All figures in billions of U.S. Dollar except per share and labeled items.</t>
   </si>
   <si>
     <t>Walmart Inc. (WMT)</t>
   </si>
   <si>
-    <t>$80.10</t>
+    <t>$81.97</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0a9a3869-1e37-4f7d-9790-5e0b1422159e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c0eda2c6-7a15-4d8e-bb99-27830fec6082}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
